--- a/the_latest_file.xlsx
+++ b/the_latest_file.xlsx
@@ -2203,7 +2203,7 @@
     <t xml:space="preserve">Bob Hurley</t>
   </si>
   <si>
-    <t xml:space="preserve">RHurley@Cantaloupe.com</t>
+    <t xml:space="preserve">RHurley@cantaloupe.com</t>
   </si>
   <si>
     <t xml:space="preserve">Senior Sales Director</t>
@@ -4291,8 +4291,8 @@
   </sheetPr>
   <dimension ref="A1:S347"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C181" activeCellId="0" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9573,7 +9573,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>724</v>
       </c>
@@ -14851,6 +14851,9 @@
     <row r="351" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:S347"/>
+  <hyperlinks>
+    <hyperlink ref="C180" r:id="rId1" display="RHurley@cantaloupe"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -14858,6 +14861,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>